--- a/SquareMovementsWithLocalisation/SquareMovementsWithLocalisation.xlsx
+++ b/SquareMovementsWithLocalisation/SquareMovementsWithLocalisation.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blab\PycharmProjects\CopterTests\SquareMovementsWithLocalisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryf\Desktop\DroneProject\CopterTest\SquareMovementsWithLocalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EEB985-BF50-49D8-AFEB-3AF4898CE882}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -80,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,24 +341,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -373,9 +365,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,304 +660,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AS9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AS13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="U10" sqref="U10:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="3" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="23"/>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="3"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="23"/>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>-11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <v>-20</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>-10</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>34</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>-11</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>12</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>14</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <v>-10</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="3"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="23"/>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>19</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>21</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="12">
         <v>13</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>-7</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="11">
         <v>11</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="13">
         <v>12</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="3"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="23"/>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>8</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15">
+      <c r="D7" s="11">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-4</v>
+      </c>
+      <c r="H7" s="10">
         <v>-7</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="3"/>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="13">
+        <v>11</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="23"/>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>-4</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21">
+      <c r="D8" s="17">
+        <v>-8</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-4</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>15</v>
+      </c>
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="23"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>SQRT(C5^2+H5^2)</f>
+        <v>15.556349186104045</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10:T13" si="0">SQRT(D5^2+I5^2)</f>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>15.620499351813308</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>36.76955262170047</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGE(P10:T10)</f>
+        <v>19.948453835041015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P13" si="1">SQRT(C6^2+H6^2)</f>
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>21.023796041628639</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>17.691806012954132</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U13" si="2">AVERAGE(P11:T11)</f>
+        <v>15.152192614354007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="2"/>
+        <v>10.40860993119073</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6246211251235323</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
